--- a/RepoX056/XDOC_XLS05601 - Bitacora/XDOC_XLS05601_A0.xlsx
+++ b/RepoX056/XDOC_XLS05601 - Bitacora/XDOC_XLS05601_A0.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios GitHub\DEV-5\RepoX056\XDOC_XLS05601 - Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555072F8-F4A1-4264-A1C9-6D77DAEEAE72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264896F7-C590-458F-BD5E-89BDAD796378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="12135" windowWidth="21600" windowHeight="11385" xr2:uid="{2EB30202-88EA-4CBD-B88C-D8727580F331}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2EB30202-88EA-4CBD-B88C-D8727580F331}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
+    <sheet name="Back ups" sheetId="4" r:id="rId2"/>
+    <sheet name="I.Os" sheetId="5" r:id="rId3"/>
+    <sheet name="Comunicaciones" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="240">
   <si>
     <t>Relevo de comunicaciones</t>
   </si>
@@ -39,18 +42,6 @@
     <t>Back Ups de todo</t>
   </si>
   <si>
-    <t>Secuencia Prensa</t>
-  </si>
-  <si>
-    <t>Secuencia Salida</t>
-  </si>
-  <si>
-    <t>secuencio ingreso</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Falta parte que usa plegadora indexada</t>
-  </si>
-  <si>
     <t>X11</t>
   </si>
   <si>
@@ -217,13 +208,553 @@
   </si>
   <si>
     <t>º</t>
+  </si>
+  <si>
+    <t>ingreso</t>
+  </si>
+  <si>
+    <t>prensa</t>
+  </si>
+  <si>
+    <t>egreso</t>
+  </si>
+  <si>
+    <t>plegadora miriam</t>
+  </si>
+  <si>
+    <t>plegadora alejandrita</t>
+  </si>
+  <si>
+    <t>tcpre2</t>
+  </si>
+  <si>
+    <t>tcpre3</t>
+  </si>
+  <si>
+    <t>prensa200421</t>
+  </si>
+  <si>
+    <t>Releamiento de variables</t>
+  </si>
+  <si>
+    <t>Relevamiento de comandos</t>
+  </si>
+  <si>
+    <t>Pantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On </t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>L/R MAN SPEED</t>
+  </si>
+  <si>
+    <t>L/R AUTO SPEED</t>
+  </si>
+  <si>
+    <t>U/D MAN SPEED</t>
+  </si>
+  <si>
+    <t>U/D AUTO SPEED</t>
+  </si>
+  <si>
+    <t>U/D DOWN SPEED</t>
+  </si>
+  <si>
+    <t>PARAMETER</t>
+  </si>
+  <si>
+    <t>UP/UP</t>
+  </si>
+  <si>
+    <t>UP/DN</t>
+  </si>
+  <si>
+    <t>DN/UP</t>
+  </si>
+  <si>
+    <t>DN/DN</t>
+  </si>
+  <si>
+    <t>ACT POS</t>
+  </si>
+  <si>
+    <t>L/R</t>
+  </si>
+  <si>
+    <t>U/D</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>RIGTH</t>
+  </si>
+  <si>
+    <t>ACT POS L/R</t>
+  </si>
+  <si>
+    <t>ACT POS U/D</t>
+  </si>
+  <si>
+    <t>SELECCIONE EJE</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>VACIO</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>HORIZONTAL</t>
+  </si>
+  <si>
+    <t>VERTICAL</t>
+  </si>
+  <si>
+    <t>UP/DN POS</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>L/R POS</t>
+  </si>
+  <si>
+    <t>L/ UP</t>
+  </si>
+  <si>
+    <t>L/ DN</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>Brazo</t>
+  </si>
+  <si>
+    <t>Descarga</t>
+  </si>
+  <si>
+    <t>RETURN HOME</t>
+  </si>
+  <si>
+    <t>POS ACTUAL VERT</t>
+  </si>
+  <si>
+    <t>POS ACT HORIZONTAL</t>
+  </si>
+  <si>
+    <t>Pulsadores</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>X25</t>
+  </si>
+  <si>
+    <t>X26</t>
+  </si>
+  <si>
+    <t>X27</t>
+  </si>
+  <si>
+    <t>MOV DERECHA</t>
+  </si>
+  <si>
+    <t>MOV IZQUIERDA</t>
+  </si>
+  <si>
+    <t>ARRIBA</t>
+  </si>
+  <si>
+    <t>ABAJO</t>
+  </si>
+  <si>
+    <t>MAN/AUTO</t>
+  </si>
+  <si>
+    <t>INI CICL AUTO</t>
+  </si>
+  <si>
+    <t>Bornera de salida</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>x11</t>
+  </si>
+  <si>
+    <t>x12</t>
+  </si>
+  <si>
+    <t>x13</t>
+  </si>
+  <si>
+    <t>x14</t>
+  </si>
+  <si>
+    <t>x15</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>u1</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>y11</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Carga</t>
+  </si>
+  <si>
+    <t>Prensa</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r221</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>y21</t>
+  </si>
+  <si>
+    <t>Y22</t>
+  </si>
+  <si>
+    <t>Y23</t>
+  </si>
+  <si>
+    <t>p24</t>
+  </si>
+  <si>
+    <t>0v</t>
+  </si>
+  <si>
+    <t>x16</t>
+  </si>
+  <si>
+    <t>x17</t>
+  </si>
+  <si>
+    <t>x20</t>
+  </si>
+  <si>
+    <t>x21</t>
+  </si>
+  <si>
+    <t>x22</t>
+  </si>
+  <si>
+    <t>x23</t>
+  </si>
+  <si>
+    <t>x25</t>
+  </si>
+  <si>
+    <t>x26</t>
+  </si>
+  <si>
+    <t>x27</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>oil lampp</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>Power ON</t>
+  </si>
+  <si>
+    <t>fast up</t>
+  </si>
+  <si>
+    <t>motor start</t>
+  </si>
+  <si>
+    <t>slow up</t>
+  </si>
+  <si>
+    <t>motor stop</t>
+  </si>
+  <si>
+    <t>mold fast down</t>
+  </si>
+  <si>
+    <t>man/auto</t>
+  </si>
+  <si>
+    <t>mold slow down</t>
+  </si>
+  <si>
+    <t>auto working lamp</t>
+  </si>
+  <si>
+    <t>fast/mid/slow</t>
+  </si>
+  <si>
+    <t>auto reset</t>
+  </si>
+  <si>
+    <t>sensor on lamp</t>
+  </si>
+  <si>
+    <t>emg stop</t>
+  </si>
+  <si>
+    <t>double check lampp</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>SEÑAL DESDE ALEJANDRITA</t>
+  </si>
+  <si>
+    <t>y10</t>
+  </si>
+  <si>
+    <t>SÑL A CAD, ORD ARRANQUE</t>
+  </si>
+  <si>
+    <t>ALEJANDRITA SI</t>
+  </si>
+  <si>
+    <t>SÑL DSD CADENA, Sns Cadena</t>
+  </si>
+  <si>
+    <t>dsd alejandrita, puede ingresar</t>
+  </si>
+  <si>
+    <t>LS der</t>
+  </si>
+  <si>
+    <t>LS izq</t>
+  </si>
+  <si>
+    <t>LS aba</t>
+  </si>
+  <si>
+    <t>LS arr</t>
+  </si>
+  <si>
+    <t>CONF CHAP ARA</t>
+  </si>
+  <si>
+    <t>ref hor</t>
+  </si>
+  <si>
+    <t>(ref ver)</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Dir</t>
+  </si>
+  <si>
+    <t>Dato1</t>
+  </si>
+  <si>
+    <t>Dato2</t>
+  </si>
+  <si>
+    <t>Dato3</t>
+  </si>
+  <si>
+    <t>Dato4</t>
+  </si>
+  <si>
+    <t>Dato5</t>
+  </si>
+  <si>
+    <t>Dato6</t>
+  </si>
+  <si>
+    <t>Dato7</t>
+  </si>
+  <si>
+    <t>Dato8</t>
+  </si>
+  <si>
+    <t>Dato9</t>
+  </si>
+  <si>
+    <t>Dato10</t>
+  </si>
+  <si>
+    <t>Dato11</t>
+  </si>
+  <si>
+    <t>Dato12</t>
+  </si>
+  <si>
+    <t>Dato13</t>
+  </si>
+  <si>
+    <t>Esclavo</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>PlegPanel</t>
+  </si>
+  <si>
+    <t>Maestro</t>
+  </si>
+  <si>
+    <t>PlegPup</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +776,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,9 +793,33 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -266,11 +829,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C812A813-14E7-4363-B8BC-3071E9A6D71E}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,251 +1185,224 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H40">
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>64</v>
@@ -877,7 +1419,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -894,10 +1436,10 @@
     </row>
     <row r="48" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E48">
         <v>16384</v>
@@ -905,16 +1447,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C49">
         <v>16384</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J49">
         <v>16384</v>
@@ -929,10 +1471,10 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -940,4 +1482,1482 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC7117B-7E4B-4935-800F-C3C7FF56A9F0}">
+  <dimension ref="A1:S48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="14" width="18.7109375" style="6" customWidth="1"/>
+    <col min="18" max="19" width="11.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA8A71-A170-4536-857E-BB9A018A222F}">
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="L1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="L2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="L3" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="L4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="L5" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="O6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="O7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" t="s">
+        <v>210</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="O8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="L9" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="L11" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="O11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="L12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="L13" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="O13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="L14" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="L15" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="O15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="L16" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="2"/>
+      <c r="I17" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="L17" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="O17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="I18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="L18" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="O18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="L19" s="8"/>
+      <c r="O19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="L20" s="8"/>
+      <c r="O20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="L21" s="8"/>
+      <c r="O21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="L22" s="8"/>
+      <c r="O22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="L23" s="8"/>
+      <c r="O23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" t="s">
+        <v>212</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="L24" s="8"/>
+      <c r="O24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="L25" s="8"/>
+      <c r="O25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="L26" s="8"/>
+      <c r="O26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8"/>
+      <c r="I27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="L27" s="8"/>
+      <c r="O27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="8"/>
+      <c r="I28" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="L28" s="8"/>
+      <c r="O28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8"/>
+      <c r="I29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="L29" s="8"/>
+      <c r="O29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8"/>
+      <c r="I30" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="L30" s="8"/>
+      <c r="O30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="8"/>
+      <c r="I31" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="L31" s="8"/>
+      <c r="O31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="8"/>
+      <c r="I32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="L32" s="8"/>
+      <c r="O32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="8"/>
+      <c r="I33" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="L33" s="8"/>
+      <c r="O33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="8"/>
+      <c r="I34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="L34" s="8"/>
+      <c r="O34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D35" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="8"/>
+      <c r="I35" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="L35" s="8"/>
+      <c r="O35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="8"/>
+      <c r="I36" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="L36" s="8"/>
+      <c r="O36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D37" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8"/>
+      <c r="I37" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="L37" s="8"/>
+      <c r="O37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="8"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="L38" s="8"/>
+      <c r="O38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="8"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="L39" s="8"/>
+      <c r="O39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="8"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="L40" s="8"/>
+      <c r="O40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="8"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="L41" s="8"/>
+      <c r="O41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="8"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="L42" s="8"/>
+      <c r="O42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="L43" s="8"/>
+      <c r="O43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB459D7-E884-4EC1-A98E-F3D002970929}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>